--- a/data/trans_orig/P53-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P53-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>6872</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3012</v>
+        <v>2914</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13126</v>
+        <v>12625</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1207898447945278</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05293709171216684</v>
+        <v>0.05122239503835922</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2307076072647133</v>
+        <v>0.2219046655169981</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5907</v>
+        <v>5863</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02217768498155363</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07353939807373719</v>
+        <v>0.07299611002993764</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -785,19 +785,19 @@
         <v>8654</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4029</v>
+        <v>3949</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16245</v>
+        <v>15864</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06306518767923483</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02936541654624614</v>
+        <v>0.02878125579940333</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1183888446004499</v>
+        <v>0.1156085450540568</v>
       </c>
     </row>
     <row r="5">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4586</v>
+        <v>4282</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01597837701932423</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08061128715839587</v>
+        <v>0.07525665014454122</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5290</v>
+        <v>6384</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01600082340748228</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06586056935315253</v>
+        <v>0.07948472788142845</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7372</v>
+        <v>7380</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0159915164745634</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05372247788179236</v>
+        <v>0.05377994379780583</v>
       </c>
     </row>
     <row r="6">
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4368</v>
+        <v>5150</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01550117283257072</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07677501560615241</v>
+        <v>0.09052298797345087</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5749</v>
+        <v>5130</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01266958674340336</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07157831986740119</v>
+        <v>0.06387167597677927</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6713</v>
+        <v>6295</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01384364564322998</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04892119048771982</v>
+        <v>0.04587367807442802</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>3844</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>980</v>
+        <v>1091</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9019</v>
+        <v>8136</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06756594114794805</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01722394397202284</v>
+        <v>0.01917850369673743</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.158528473346764</v>
+        <v>0.1430081851581855</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7135</v>
+        <v>7148</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0263976544072044</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08883157353550511</v>
+        <v>0.08898572580877313</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -998,19 +998,19 @@
         <v>5964</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2620</v>
+        <v>1987</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11676</v>
+        <v>11745</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04346723728991908</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01909337228008736</v>
+        <v>0.01448417615364092</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08509129583363575</v>
+        <v>0.08559357418691299</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>44387</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37409</v>
+        <v>38291</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49763</v>
+        <v>49581</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7801646642056291</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6575297150910755</v>
+        <v>0.6730211988345671</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8746600969265277</v>
+        <v>0.8714581146955863</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>71</v>
@@ -1048,19 +1048,19 @@
         <v>74118</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>67319</v>
+        <v>68257</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>77821</v>
+        <v>77738</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9227542504603563</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8381020571738985</v>
+        <v>0.8497845104707515</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9688521239743529</v>
+        <v>0.9678131049929527</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>116</v>
@@ -1069,19 +1069,19 @@
         <v>118506</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>108968</v>
+        <v>110498</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>125627</v>
+        <v>125999</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8636324129130527</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7941259404664418</v>
+        <v>0.8052752531344254</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9155250610450847</v>
+        <v>0.9182414674636267</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>3621</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9746</v>
+        <v>10444</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02418440229507147</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006436059846025115</v>
+        <v>0.006457143438543938</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0650969896313861</v>
+        <v>0.06975830393661804</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4832</v>
+        <v>5361</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007617055921305435</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03861117122756916</v>
+        <v>0.04283966738826656</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1215,19 +1215,19 @@
         <v>4574</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1595</v>
+        <v>1889</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11753</v>
+        <v>11606</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01664134740057894</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005801246098720172</v>
+        <v>0.00687102208657619</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04276018101495777</v>
+        <v>0.04222368015721203</v>
       </c>
     </row>
     <row r="11">
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5841</v>
+        <v>5560</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006630773680587673</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03901223922517538</v>
+        <v>0.03713331710352087</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5023</v>
+        <v>4067</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003611805601014676</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01827464976322644</v>
+        <v>0.01479612207120482</v>
       </c>
     </row>
     <row r="12">
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7275</v>
+        <v>6367</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01393793139856963</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04858995063686354</v>
+        <v>0.04252837095367035</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6334</v>
+        <v>7295</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.00759203995142999</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02304601862756183</v>
+        <v>0.02653943675642699</v>
       </c>
     </row>
     <row r="13">
@@ -1370,19 +1370,19 @@
         <v>7249</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3088</v>
+        <v>3002</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13770</v>
+        <v>13983</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04842033220199548</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02062790162673337</v>
+        <v>0.02004935193332122</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09196928596276119</v>
+        <v>0.09339414061648534</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6672</v>
+        <v>6377</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01561562561896793</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05331144665393621</v>
+        <v>0.05095494972493047</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1412,19 +1412,19 @@
         <v>9204</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4425</v>
+        <v>4295</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17245</v>
+        <v>16054</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03348446396027607</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01609984687220391</v>
+        <v>0.01562443888569344</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06274164201597959</v>
+        <v>0.05840898448548219</v>
       </c>
     </row>
     <row r="14">
@@ -1441,19 +1441,19 @@
         <v>135769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>127252</v>
+        <v>126432</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>141545</v>
+        <v>141808</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9068265604237757</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.849939128625688</v>
+        <v>0.8444647621727458</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9454042209769428</v>
+        <v>0.9471606287809821</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>116</v>
@@ -1462,19 +1462,19 @@
         <v>122237</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>116770</v>
+        <v>117627</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>124345</v>
+        <v>124338</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9767673184597266</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9330884797626114</v>
+        <v>0.9399371823568117</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9936173027098947</v>
+        <v>0.9935570206059597</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>245</v>
@@ -1483,19 +1483,19 @@
         <v>258006</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>247990</v>
+        <v>248556</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>264665</v>
+        <v>264648</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9386703430867003</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.90223066339543</v>
+        <v>0.9042910270968575</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9628979541867322</v>
+        <v>0.9628353053690731</v>
       </c>
     </row>
     <row r="15">
@@ -1587,19 +1587,19 @@
         <v>3966</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1039</v>
+        <v>992</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9695</v>
+        <v>9794</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02437668187733188</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006383817124614492</v>
+        <v>0.006094596052209082</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0595902851130009</v>
+        <v>0.0601944767516851</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1621,19 +1621,19 @@
         <v>3966</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1033</v>
+        <v>989</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10104</v>
+        <v>9836</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01379675585961004</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003593424983891376</v>
+        <v>0.003441944866597382</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03514825286874144</v>
+        <v>0.03421614585979484</v>
       </c>
     </row>
     <row r="17">
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5636</v>
+        <v>7281</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01133495940054825</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03463892282856773</v>
+        <v>0.04475360207838383</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7017</v>
+        <v>6903</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01580995025922233</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05624107804514576</v>
+        <v>0.05532882899737324</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -1739,19 +1739,19 @@
         <v>3817</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>943</v>
+        <v>1022</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>9686</v>
+        <v>9021</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01327718732365127</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.003279007008804997</v>
+        <v>0.003554586919329775</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03369366663515543</v>
+        <v>0.03138201658247926</v>
       </c>
     </row>
     <row r="19">
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6854</v>
+        <v>6336</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007060297684432801</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04212869959211477</v>
+        <v>0.03894136604953072</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6076</v>
+        <v>5817</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007825507315262298</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04870127262915295</v>
+        <v>0.04662432660160049</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6469</v>
+        <v>7101</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007392412667225136</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02250319376769801</v>
+        <v>0.02470092668765181</v>
       </c>
     </row>
     <row r="20">
@@ -1839,19 +1839,19 @@
         <v>155739</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>149435</v>
+        <v>148670</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>159768</v>
+        <v>159712</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9572280610376871</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9184800051665077</v>
+        <v>0.9137772329853466</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9819892835594727</v>
+        <v>0.9816499372734835</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>120</v>
@@ -1860,19 +1860,19 @@
         <v>121815</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>116358</v>
+        <v>116753</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>123812</v>
+        <v>123801</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9763645424255154</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9326242863670261</v>
+        <v>0.9357940450972956</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9923727411701284</v>
+        <v>0.9922807798471083</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>267</v>
@@ -1881,19 +1881,19 @@
         <v>277554</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>269659</v>
+        <v>270489</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>282393</v>
+        <v>282514</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9655336441495136</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9380700688045586</v>
+        <v>0.9409544247555109</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.982367186347357</v>
+        <v>0.9827870787640745</v>
       </c>
     </row>
     <row r="21">
@@ -1985,19 +1985,19 @@
         <v>2766</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7475</v>
+        <v>8044</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04809953220563847</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01496223694874382</v>
+        <v>0.01501966237761273</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1299802252191279</v>
+        <v>0.1398854904384191</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5254</v>
+        <v>4982</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01849007945347382</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09449930980902715</v>
+        <v>0.08961128102134476</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -2027,19 +2027,19 @@
         <v>3794</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1744</v>
+        <v>956</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9511</v>
+        <v>9392</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03354501086010447</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01542240689701417</v>
+        <v>0.008451491821436582</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08408838810067375</v>
+        <v>0.08304290080363795</v>
       </c>
     </row>
     <row r="23">
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4125</v>
+        <v>5204</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01591293665008292</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07172933146061737</v>
+        <v>0.090501015483161</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4837</v>
+        <v>4212</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008090935410062356</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04276826522592201</v>
+        <v>0.03723984479356943</v>
       </c>
     </row>
     <row r="26">
@@ -2213,19 +2213,19 @@
         <v>53826</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>48777</v>
+        <v>48827</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>56581</v>
+        <v>56604</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9359875311442786</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8481857472484626</v>
+        <v>0.8490694812066153</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9838909079719722</v>
+        <v>0.9842889233255068</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>53</v>
@@ -2234,7 +2234,7 @@
         <v>54567</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>50341</v>
+        <v>50613</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>55595</v>
@@ -2243,7 +2243,7 @@
         <v>0.9815099205465262</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9055006901909728</v>
+        <v>0.9103887189786551</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -2255,19 +2255,19 @@
         <v>108393</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>102852</v>
+        <v>102521</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>111270</v>
+        <v>111300</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9583640537298331</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9093718397775761</v>
+        <v>0.9064511068918391</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9838030420025394</v>
+        <v>0.9840647876146528</v>
       </c>
     </row>
     <row r="27">
@@ -2359,19 +2359,19 @@
         <v>17225</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10604</v>
+        <v>10578</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>27395</v>
+        <v>27392</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04035726888533302</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02484524428188264</v>
+        <v>0.02478304599952997</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06418372133651827</v>
+        <v>0.06417736190034208</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -2380,19 +2380,19 @@
         <v>3763</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1006</v>
+        <v>957</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9737</v>
+        <v>8633</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009751979832333724</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002606272296461756</v>
+        <v>0.002481671987517193</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02523605898951281</v>
+        <v>0.02237491121793035</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>21</v>
@@ -2401,19 +2401,19 @@
         <v>20988</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>13386</v>
+        <v>12813</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>31786</v>
+        <v>30902</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02582652998430459</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01647223283751348</v>
+        <v>0.0157674845122082</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03911461711912165</v>
+        <v>0.03802628523471992</v>
       </c>
     </row>
     <row r="29">
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6029</v>
+        <v>6509</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.004455839801493909</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01412615267390688</v>
+        <v>0.01525027641859454</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5192</v>
+        <v>6477</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.003331127056044072</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01345702914539079</v>
+        <v>0.01678760169579097</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -2475,16 +2475,16 @@
         <v>907</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10345</v>
+        <v>8913</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.003921850162824287</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.001116691793176036</v>
+        <v>0.001115576719018823</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01273036034300399</v>
+        <v>0.01096826169850162</v>
       </c>
     </row>
     <row r="30">
@@ -2501,19 +2501,19 @@
         <v>4813</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1823</v>
+        <v>1850</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10458</v>
+        <v>11008</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01127618529854878</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004270677792228292</v>
+        <v>0.004333423839192157</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02450156530258813</v>
+        <v>0.02579002806385529</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -2522,19 +2522,19 @@
         <v>2990</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8083</v>
+        <v>7998</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.007750041999533743</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0</v>
+        <v>0.002467530553051462</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02095077036958298</v>
+        <v>0.02072851185546101</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>8</v>
@@ -2543,19 +2543,19 @@
         <v>7803</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3914</v>
+        <v>3776</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>15116</v>
+        <v>14929</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.009602047618722577</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.004816016595562906</v>
+        <v>0.004646960019330235</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0186010617185627</v>
+        <v>0.01837116467720083</v>
       </c>
     </row>
     <row r="31">
@@ -2572,19 +2572,19 @@
         <v>13157</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7481</v>
+        <v>7614</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22256</v>
+        <v>22754</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0308266263722273</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0175279780249558</v>
+        <v>0.01783827411188977</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0521442011178397</v>
+        <v>0.05330998621459037</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -2593,19 +2593,19 @@
         <v>5051</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11231</v>
+        <v>11442</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0130910945459877</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.004888436445752899</v>
+        <v>0.004882040938190895</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02910878901265662</v>
+        <v>0.02965566910483336</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>18</v>
@@ -2614,19 +2614,19 @@
         <v>18208</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>11297</v>
+        <v>11055</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>28106</v>
+        <v>28824</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02240617388796259</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01390098803849031</v>
+        <v>0.01360387557549299</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0345856684741785</v>
+        <v>0.03546894974651858</v>
       </c>
     </row>
     <row r="32">
@@ -2643,19 +2643,19 @@
         <v>389721</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>376726</v>
+        <v>377087</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>399955</v>
+        <v>399829</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.913084079642397</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8826387239178244</v>
+        <v>0.8834839070593941</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9370628347766968</v>
+        <v>0.9367666807329247</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>360</v>
@@ -2664,19 +2664,19 @@
         <v>372737</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>363364</v>
+        <v>364472</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>378636</v>
+        <v>378826</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9660757565661008</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9417812109983804</v>
+        <v>0.944652723356413</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9813640066276703</v>
+        <v>0.9818579902436684</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>732</v>
@@ -2685,19 +2685,19 @@
         <v>762458</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>747092</v>
+        <v>748575</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>774977</v>
+        <v>775333</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.938243398346186</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9193345306423277</v>
+        <v>0.9211597440206896</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.953648553957853</v>
+        <v>0.9540867175825832</v>
       </c>
     </row>
     <row r="33">
@@ -3029,19 +3029,19 @@
         <v>20139</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12233</v>
+        <v>12938</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30951</v>
+        <v>30603</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04823078680258855</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02929576181223962</v>
+        <v>0.03098454888359091</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07412304941035601</v>
+        <v>0.07329090637408051</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -3050,19 +3050,19 @@
         <v>23022</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14523</v>
+        <v>14083</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33984</v>
+        <v>33864</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06714243533895214</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04235487568659386</v>
+        <v>0.04107075109169603</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09911062542076608</v>
+        <v>0.09876249449115522</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -3071,19 +3071,19 @@
         <v>43161</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31471</v>
+        <v>31052</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58800</v>
+        <v>58607</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05675814102652659</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04138556945343548</v>
+        <v>0.04083416207725481</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0773238620487159</v>
+        <v>0.07706977238414942</v>
       </c>
     </row>
     <row r="5">
@@ -3100,19 +3100,19 @@
         <v>4129</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10411</v>
+        <v>10450</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009887647324133953</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002512027764318961</v>
+        <v>0.002482345222040538</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.024933574150453</v>
+        <v>0.02502587868137057</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -3121,19 +3121,19 @@
         <v>3336</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9325</v>
+        <v>8019</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009730459523422007</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002991766575617437</v>
+        <v>0.002999582323481426</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02719637328432502</v>
+        <v>0.02338612173524264</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -3142,19 +3142,19 @@
         <v>7465</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3225</v>
+        <v>3189</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15141</v>
+        <v>15531</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009816770580957639</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0042415237802603</v>
+        <v>0.004193689248544606</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01991099250611669</v>
+        <v>0.02042418509743929</v>
       </c>
     </row>
     <row r="6">
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5958</v>
+        <v>5445</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00398260813585048</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0142679564813658</v>
+        <v>0.01304121394830822</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -3192,19 +3192,19 @@
         <v>4618</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1181</v>
+        <v>1249</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11207</v>
+        <v>11990</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01346775057653219</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003445304320667811</v>
+        <v>0.003642998772201804</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0326841709503814</v>
+        <v>0.03496701329556427</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -3213,19 +3213,19 @@
         <v>6281</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2554</v>
+        <v>2332</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13742</v>
+        <v>13325</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.008259504954267863</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003358378797797753</v>
+        <v>0.003066602824784859</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01807124309618268</v>
+        <v>0.01752278170674772</v>
       </c>
     </row>
     <row r="7">
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7895</v>
+        <v>7962</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005422691573091718</v>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01890778967258802</v>
+        <v>0.01906852475207783</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7221</v>
+        <v>7075</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005852969269295002</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02106066076505426</v>
+        <v>0.02063358192902152</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -3284,19 +3284,19 @@
         <v>4271</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1040</v>
+        <v>1127</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10731</v>
+        <v>11012</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005616705877192724</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00136702648693825</v>
+        <v>0.001481680925459696</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01411206083407725</v>
+        <v>0.01448093797921864</v>
       </c>
     </row>
     <row r="8">
@@ -3313,19 +3313,19 @@
         <v>389361</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>376505</v>
+        <v>378079</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>398238</v>
+        <v>398623</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9324762661643353</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9016883467296439</v>
+        <v>0.9054573527553432</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9537355514906188</v>
+        <v>0.9546587010510633</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>286</v>
@@ -3334,19 +3334,19 @@
         <v>309904</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>296289</v>
+        <v>297553</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>320033</v>
+        <v>320927</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9038063852917987</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8640991520428153</v>
+        <v>0.86778609652399</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9333468571169071</v>
+        <v>0.9359514484360083</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>655</v>
@@ -3355,19 +3355,19 @@
         <v>699265</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>682680</v>
+        <v>681250</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>713208</v>
+        <v>712845</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9195488775610552</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8977387533027388</v>
+        <v>0.8958580698230876</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9378839106030543</v>
+        <v>0.9374065732079238</v>
       </c>
     </row>
     <row r="9">
@@ -3459,19 +3459,19 @@
         <v>19802</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11730</v>
+        <v>11754</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33573</v>
+        <v>31515</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05920499556066917</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03507128317568416</v>
+        <v>0.03514311156855456</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1003786289951163</v>
+        <v>0.09422664892766312</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -3480,19 +3480,19 @@
         <v>18098</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10800</v>
+        <v>11138</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26443</v>
+        <v>27594</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0578735785473265</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03453633579975677</v>
+        <v>0.03561684646765198</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0845562583108239</v>
+        <v>0.08823685717389539</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -3501,19 +3501,19 @@
         <v>37900</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27279</v>
+        <v>26898</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52683</v>
+        <v>54037</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05856164771593909</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04215049035673572</v>
+        <v>0.04156191414344661</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08140405899112051</v>
+        <v>0.08349508497549157</v>
       </c>
     </row>
     <row r="11">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5682</v>
+        <v>5822</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003097868951877687</v>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01817015447863365</v>
+        <v>0.0186180892526226</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4919</v>
+        <v>5509</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.001496906899546887</v>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.007600235348971294</v>
+        <v>0.008512592745841614</v>
       </c>
     </row>
     <row r="12">
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5657</v>
+        <v>6535</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005538025700046539</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01691483020166084</v>
+        <v>0.019539484475914</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5794</v>
+        <v>5758</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.003676651750702439</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01852835600068813</v>
+        <v>0.01841121586554161</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -3635,19 +3635,19 @@
         <v>3002</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7986</v>
+        <v>8805</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.004638599820290979</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001367861446441736</v>
+        <v>0.001388981048637233</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01233982814619892</v>
+        <v>0.01360555353102356</v>
       </c>
     </row>
     <row r="13">
@@ -3664,19 +3664,19 @@
         <v>10605</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4315</v>
+        <v>4312</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21094</v>
+        <v>22082</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03170884774970738</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01290176929874989</v>
+        <v>0.012893513019054</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0630690039871422</v>
+        <v>0.06602152301987302</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -3685,19 +3685,19 @@
         <v>4087</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1049</v>
+        <v>1177</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9646</v>
+        <v>10117</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01306786361712311</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003353467103369817</v>
+        <v>0.003762367588572796</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03084447872833013</v>
+        <v>0.03235183615390293</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -3706,19 +3706,19 @@
         <v>14692</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7921</v>
+        <v>8321</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27014</v>
+        <v>26435</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02270142419633328</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01223874358915494</v>
+        <v>0.01285657951940278</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0417411127366578</v>
+        <v>0.04084595607967615</v>
       </c>
     </row>
     <row r="14">
@@ -3735,19 +3735,19 @@
         <v>302202</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>286361</v>
+        <v>288978</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>312983</v>
+        <v>313170</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9035481309895769</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8561875980511147</v>
+        <v>0.8640099797167767</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9357821332022027</v>
+        <v>0.9363438477163563</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>268</v>
@@ -3756,19 +3756,19 @@
         <v>288419</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>278672</v>
+        <v>277960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>296815</v>
+        <v>296419</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9222840371329702</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8911144007997857</v>
+        <v>0.8888380242198525</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9491306701775516</v>
+        <v>0.9478657570886465</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>561</v>
@@ -3777,19 +3777,19 @@
         <v>590621</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>572843</v>
+        <v>574145</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>604646</v>
+        <v>604217</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9126014213678898</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8851312476151973</v>
+        <v>0.8871429176180944</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9342722862686383</v>
+        <v>0.9336093419994441</v>
       </c>
     </row>
     <row r="15">
@@ -3881,19 +3881,19 @@
         <v>17137</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10872</v>
+        <v>10147</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26471</v>
+        <v>26170</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06100657203725502</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03870275875418296</v>
+        <v>0.03612381467174685</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09423513178364559</v>
+        <v>0.09316474100800813</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -3902,19 +3902,19 @@
         <v>16512</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9404</v>
+        <v>10295</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25199</v>
+        <v>26265</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06400519839978021</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03645098461700889</v>
+        <v>0.03990787703419601</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09767903374938038</v>
+        <v>0.1018099556672664</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -3923,19 +3923,19 @@
         <v>33649</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24352</v>
+        <v>23362</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45975</v>
+        <v>46325</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06244211913220169</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04519102042881024</v>
+        <v>0.04335307714086221</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08531565558108736</v>
+        <v>0.08596505941070065</v>
       </c>
     </row>
     <row r="17">
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5096</v>
+        <v>4997</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.003572269535102849</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0181409778749187</v>
+        <v>0.01778994059553036</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6960</v>
+        <v>7693</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.008254933657761247</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0269797745634528</v>
+        <v>0.02982043693682703</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -3994,19 +3994,19 @@
         <v>3133</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8630</v>
+        <v>8688</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.005814024280509813</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00180088238669582</v>
+        <v>0.001804751825026366</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01601411489594169</v>
+        <v>0.01612171265003019</v>
       </c>
     </row>
     <row r="18">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4867</v>
+        <v>5865</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.003413461194043559</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01732557058363196</v>
+        <v>0.02088052666516567</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>4825</v>
+        <v>4828</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.001779318187078228</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.008953838506475534</v>
+        <v>0.008960021220354174</v>
       </c>
     </row>
     <row r="19">
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4913</v>
+        <v>5034</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003511340149731728</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01748901706350873</v>
+        <v>0.01792244194823178</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4892</v>
+        <v>5608</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001830339070600234</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.009079016284473176</v>
+        <v>0.01040710551486051</v>
       </c>
     </row>
     <row r="20">
@@ -4149,19 +4149,19 @@
         <v>260814</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>251444</v>
+        <v>251111</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267812</v>
+        <v>268787</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9284963570838668</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.895141638807847</v>
+        <v>0.8939532616544007</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9534096877198801</v>
+        <v>0.9568813064782248</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>224</v>
@@ -4170,19 +4170,19 @@
         <v>239338</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>229882</v>
+        <v>229016</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>246781</v>
+        <v>246165</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9277398679424586</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8910826701853806</v>
+        <v>0.8877286757035261</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9565914843479495</v>
+        <v>0.9542014880364916</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>473</v>
@@ -4191,19 +4191,19 @@
         <v>500152</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>486199</v>
+        <v>487257</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>509569</v>
+        <v>510945</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9281341993296101</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9022415200249601</v>
+        <v>0.9042056684670459</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9456089038110568</v>
+        <v>0.9481634040357745</v>
       </c>
     </row>
     <row r="21">
@@ -4295,19 +4295,19 @@
         <v>23280</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15529</v>
+        <v>15005</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32872</v>
+        <v>33929</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1221059806590667</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08145192683229502</v>
+        <v>0.07870655074850501</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.17242107793884</v>
+        <v>0.1779637799884028</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -4316,19 +4316,19 @@
         <v>19747</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12371</v>
+        <v>12133</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30237</v>
+        <v>30009</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1475113039135456</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09240925297707425</v>
+        <v>0.09063231116041509</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2258670098344362</v>
+        <v>0.2241677434221275</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>41</v>
@@ -4337,19 +4337,19 @@
         <v>43027</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30915</v>
+        <v>31664</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56343</v>
+        <v>57727</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1325861154021231</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09526323193805473</v>
+        <v>0.09757155635998614</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1736174935969975</v>
+        <v>0.1778844230738309</v>
       </c>
     </row>
     <row r="23">
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4903</v>
+        <v>4695</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.005005614555990811</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02571915153060356</v>
+        <v>0.02462380765850536</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4809</v>
+        <v>5318</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.002940712074998391</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01481769801308534</v>
+        <v>0.0163878890265321</v>
       </c>
     </row>
     <row r="24">
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7315</v>
+        <v>7071</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01070246556265101</v>
@@ -4441,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03836865665139325</v>
+        <v>0.03708702730793013</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6877</v>
+        <v>7180</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.006287513623012574</v>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02119159458012891</v>
+        <v>0.02212529087334045</v>
       </c>
     </row>
     <row r="25">
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5872</v>
+        <v>5200</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005458487173923139</v>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03079835737871825</v>
+        <v>0.02727333679977309</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5361</v>
+        <v>5059</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007308932025971612</v>
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04004294701857926</v>
+        <v>0.03778925311193334</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7221</v>
+        <v>6608</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006221827643548694</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02224975383635128</v>
+        <v>0.02036366986253735</v>
       </c>
     </row>
     <row r="26">
@@ -4563,19 +4563,19 @@
         <v>163335</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>152870</v>
+        <v>150793</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>172201</v>
+        <v>172014</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8567274520483683</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8018356162190412</v>
+        <v>0.7909419462584085</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9032292623992743</v>
+        <v>0.9022482490206923</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>103</v>
@@ -4584,19 +4584,19 @@
         <v>113144</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>102753</v>
+        <v>102808</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>120960</v>
+        <v>120903</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8451797640604828</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7675610720089724</v>
+        <v>0.7679712430332808</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9035611146656725</v>
+        <v>0.9031379761432824</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>250</v>
@@ -4605,19 +4605,19 @@
         <v>276480</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>261893</v>
+        <v>261986</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>289935</v>
+        <v>288747</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8519638312563172</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8070152465003239</v>
+        <v>0.8072997518402334</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8934239195717263</v>
+        <v>0.8897635386474536</v>
       </c>
     </row>
     <row r="27">
@@ -4709,19 +4709,19 @@
         <v>80357</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>64196</v>
+        <v>64865</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>101985</v>
+        <v>99548</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06567444790216498</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05246661029629374</v>
+        <v>0.05301264440440963</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08335058999349967</v>
+        <v>0.08135870591002178</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>72</v>
@@ -4730,19 +4730,19 @@
         <v>77380</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>62163</v>
+        <v>61453</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>97039</v>
+        <v>95611</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07387403159906253</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05934618953601183</v>
+        <v>0.05866806899509537</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09264171077505844</v>
+        <v>0.09127885223381102</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>147</v>
@@ -4751,19 +4751,19 @@
         <v>157737</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>134231</v>
+        <v>132428</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>184394</v>
+        <v>183915</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06945632435147124</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05910599019770601</v>
+        <v>0.05831185516611707</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0811939423365656</v>
+        <v>0.08098318165575569</v>
       </c>
     </row>
     <row r="29">
@@ -4780,19 +4780,19 @@
         <v>6086</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2169</v>
+        <v>2084</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12398</v>
+        <v>12431</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.004974324451892768</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001772787239225691</v>
+        <v>0.001703267443347395</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01013228171140643</v>
+        <v>0.01015926010543569</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -4801,19 +4801,19 @@
         <v>6435</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2162</v>
+        <v>2303</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12925</v>
+        <v>13074</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.006143272927564098</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002063965347155913</v>
+        <v>0.002198853346414596</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01233904159992502</v>
+        <v>0.01248160252781983</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -4822,19 +4822,19 @@
         <v>12521</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6548</v>
+        <v>6757</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>22192</v>
+        <v>21651</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.005513476056902489</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002883307459575692</v>
+        <v>0.002975184195809071</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.009771839180864626</v>
+        <v>0.009533429931137668</v>
       </c>
     </row>
     <row r="30">
@@ -4851,19 +4851,19 @@
         <v>6514</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2803</v>
+        <v>2788</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13214</v>
+        <v>12804</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.00532417579755092</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.002290503794034495</v>
+        <v>0.002278976978587765</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01079937358404732</v>
+        <v>0.0104648648648001</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5</v>
@@ -4872,19 +4872,19 @@
         <v>5768</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2146</v>
+        <v>2177</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12177</v>
+        <v>12729</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.005506363591371987</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002048450872370454</v>
+        <v>0.002078184037437597</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0116255958358364</v>
+        <v>0.01215188711546481</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>12</v>
@@ -4893,19 +4893,19 @@
         <v>12282</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6548</v>
+        <v>6425</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>21643</v>
+        <v>20914</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.00540820588398856</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002883433852566912</v>
+        <v>0.002829232074010225</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.009529836375589646</v>
+        <v>0.009208913905391601</v>
       </c>
     </row>
     <row r="31">
@@ -4922,19 +4922,19 @@
         <v>14897</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8434</v>
+        <v>8351</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>25189</v>
+        <v>26296</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01217477890133532</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.006893197569980748</v>
+        <v>0.006825505458592409</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02058650649188675</v>
+        <v>0.02149109661888295</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -4943,19 +4943,19 @@
         <v>7072</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3118</v>
+        <v>2985</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>14642</v>
+        <v>13552</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.006751544214734804</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.002976737705648839</v>
+        <v>0.002849840706571611</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01397848655604787</v>
+        <v>0.01293815980014161</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>19</v>
@@ -4964,19 +4964,19 @@
         <v>21969</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>12616</v>
+        <v>13371</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>33831</v>
+        <v>34386</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.009673431967334799</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.005555303241273694</v>
+        <v>0.005887561097573261</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01489667195019277</v>
+        <v>0.01514113927408001</v>
       </c>
     </row>
     <row r="32">
@@ -4993,19 +4993,19 @@
         <v>1115712</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1093084</v>
+        <v>1091799</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1134775</v>
+        <v>1134011</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9118522729470561</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8933583773249247</v>
+        <v>0.8923081037607919</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9274321496859429</v>
+        <v>0.9268073993068782</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>881</v>
@@ -5014,19 +5014,19 @@
         <v>950806</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>930068</v>
+        <v>930074</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>968707</v>
+        <v>968299</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9077247876672666</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8879258243050603</v>
+        <v>0.8879319480536998</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9248147318242307</v>
+        <v>0.92442478337625</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1939</v>
@@ -5035,19 +5035,19 @@
         <v>2066519</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2037589</v>
+        <v>2038475</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2093504</v>
+        <v>2095216</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9099485617403029</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8972101100351747</v>
+        <v>0.897600023801839</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9218310417734159</v>
+        <v>0.9225846491167572</v>
       </c>
     </row>
     <row r="33">
@@ -5379,19 +5379,19 @@
         <v>7283</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2947</v>
+        <v>2891</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14349</v>
+        <v>13928</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02492227114558495</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01008663136307281</v>
+        <v>0.009892668820350132</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04910601140580598</v>
+        <v>0.04766518667813436</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -5400,19 +5400,19 @@
         <v>7788</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3006</v>
+        <v>3648</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14470</v>
+        <v>14479</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03270568070167452</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01262351487439798</v>
+        <v>0.01531921601745064</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06076754715416287</v>
+        <v>0.06080260196305561</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -5421,19 +5421,19 @@
         <v>15071</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8658</v>
+        <v>8985</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23853</v>
+        <v>24687</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02841710095713902</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01632494325262503</v>
+        <v>0.01694194263865013</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04497746146810853</v>
+        <v>0.04654982628967267</v>
       </c>
     </row>
     <row r="5">
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5700</v>
+        <v>7007</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003874264539489754</v>
@@ -5462,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01950665627208026</v>
+        <v>0.02398022373260901</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5055</v>
+        <v>6340</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004420177158487071</v>
@@ -5483,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02122761027795808</v>
+        <v>0.02662576478472082</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6576</v>
+        <v>7562</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004119384840769892</v>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01240003147021545</v>
+        <v>0.0142582963492109</v>
       </c>
     </row>
     <row r="6">
@@ -5521,19 +5521,19 @@
         <v>4114</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10327</v>
+        <v>9506</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01407945803751399</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003555449607144206</v>
+        <v>0.003535948549059376</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03534128289826297</v>
+        <v>0.03253230542338292</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -5555,19 +5555,19 @@
         <v>4114</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10355</v>
+        <v>11087</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.007757638618217046</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001960429998517668</v>
+        <v>0.001979783437355498</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01952573993188875</v>
+        <v>0.02090478534404238</v>
       </c>
     </row>
     <row r="7">
@@ -5584,19 +5584,19 @@
         <v>5685</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2025</v>
+        <v>2082</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12527</v>
+        <v>13136</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0194552091531197</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006930647500401283</v>
+        <v>0.007126098144425243</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04287099751470187</v>
+        <v>0.04495495492734135</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -5605,19 +5605,19 @@
         <v>4430</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>959</v>
+        <v>975</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11166</v>
+        <v>11463</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01860244773546644</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004028538783023054</v>
+        <v>0.004095597858807633</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04689291080258379</v>
+        <v>0.04813898833812746</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -5626,19 +5626,19 @@
         <v>10115</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4534</v>
+        <v>5100</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18598</v>
+        <v>19202</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01907231062991067</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008548322540241014</v>
+        <v>0.009616961165730338</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03506817458961319</v>
+        <v>0.03620684155483887</v>
       </c>
     </row>
     <row r="8">
@@ -5655,19 +5655,19 @@
         <v>273997</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>263392</v>
+        <v>264939</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>281391</v>
+        <v>281157</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9376687971242916</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9013760042937978</v>
+        <v>0.9066696604456924</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9629729163765174</v>
+        <v>0.9621714682531816</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>224</v>
@@ -5676,19 +5676,19 @@
         <v>224857</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>217008</v>
+        <v>215958</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>231368</v>
+        <v>230379</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.944271694404372</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9113118761654152</v>
+        <v>0.9069024850112384</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9716140210021186</v>
+        <v>0.967462071299815</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>475</v>
@@ -5697,19 +5697,19 @@
         <v>498854</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>486494</v>
+        <v>484597</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>509435</v>
+        <v>507934</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9406335649539633</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9173289364693168</v>
+        <v>0.9137512348051617</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9605856806278854</v>
+        <v>0.9577546189620221</v>
       </c>
     </row>
     <row r="9">
@@ -5801,19 +5801,19 @@
         <v>3909</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9978</v>
+        <v>9598</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01429502350477886</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003587342459119075</v>
+        <v>0.003566959523340248</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0364913932165196</v>
+        <v>0.03510169552397145</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -5822,19 +5822,19 @@
         <v>7161</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3049</v>
+        <v>3092</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15450</v>
+        <v>13803</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02782386291697582</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0118446025653148</v>
+        <v>0.01201478794246317</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06002797828076817</v>
+        <v>0.05362883249296139</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -5843,19 +5843,19 @@
         <v>11070</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5864</v>
+        <v>5309</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19132</v>
+        <v>19489</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02085482078042138</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01104784938326157</v>
+        <v>0.01000228292869268</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03604291633934599</v>
+        <v>0.03671562547176312</v>
       </c>
     </row>
     <row r="11">
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6144</v>
+        <v>5585</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004080118284613974</v>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02247068473908759</v>
+        <v>0.02042685340001955</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7590</v>
+        <v>6674</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002101770549657483</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01429854749170432</v>
+        <v>0.0125732543993039</v>
       </c>
     </row>
     <row r="12">
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7614</v>
+        <v>7435</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007859146004776808</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0278452620462044</v>
+        <v>0.02719149724028975</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7563</v>
+        <v>7513</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.004048441850469775</v>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01424800518184047</v>
+        <v>0.0141533960061059</v>
       </c>
     </row>
     <row r="13">
@@ -5998,19 +5998,19 @@
         <v>6383</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2216</v>
+        <v>2902</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13015</v>
+        <v>13427</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02334422047118737</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008102830489548702</v>
+        <v>0.0106117693730234</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04759618612620316</v>
+        <v>0.0491028482598153</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -6019,19 +6019,19 @@
         <v>3299</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9922</v>
+        <v>9317</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01281700034692479</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003966697296802049</v>
+        <v>0.003941185562305164</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03854803308603373</v>
+        <v>0.03619858337993932</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -6040,19 +6040,19 @@
         <v>9682</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4368</v>
+        <v>4502</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17105</v>
+        <v>17016</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01823983362859031</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008228150483402053</v>
+        <v>0.008480345888826174</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03222393573004034</v>
+        <v>0.03205560707034529</v>
       </c>
     </row>
     <row r="14">
@@ -6069,19 +6069,19 @@
         <v>259882</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>251865</v>
+        <v>250693</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>266071</v>
+        <v>266003</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.950421491734643</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9211026200629471</v>
+        <v>0.9168149430089521</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9730541275697598</v>
+        <v>0.9728040872391944</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>238</v>
@@ -6090,19 +6090,19 @@
         <v>246922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>238609</v>
+        <v>239630</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>252135</v>
+        <v>252364</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9593591367360994</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9270619870021758</v>
+        <v>0.9310276427776543</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9796153999026337</v>
+        <v>0.980505338076434</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>484</v>
@@ -6111,19 +6111,19 @@
         <v>506804</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>495811</v>
+        <v>496898</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>515058</v>
+        <v>514961</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.954755133190861</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9340455375379914</v>
+        <v>0.9360930730362268</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.970305295996601</v>
+        <v>0.9701224069998123</v>
       </c>
     </row>
     <row r="15">
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5795</v>
+        <v>6550</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009081613394508321</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02892157773374</v>
+        <v>0.0326900940781597</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -6236,19 +6236,19 @@
         <v>3966</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>995</v>
+        <v>1004</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9171</v>
+        <v>9335</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02166439899534423</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00543453923529704</v>
+        <v>0.005486985899623999</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05009890866457287</v>
+        <v>0.05099222879841644</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -6257,19 +6257,19 @@
         <v>5785</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2126</v>
+        <v>2003</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12060</v>
+        <v>12236</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01508914173686712</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005545254387469724</v>
+        <v>0.005223104576270607</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03145488480016933</v>
+        <v>0.03191443190092835</v>
       </c>
     </row>
     <row r="17">
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5484</v>
+        <v>5666</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.005925804202422677</v>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02995932946369204</v>
+        <v>0.03095061070613497</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6114</v>
+        <v>5468</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.00282921745841065</v>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01594723953337916</v>
+        <v>0.0142614985922721</v>
       </c>
     </row>
     <row r="18">
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8266</v>
+        <v>6673</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.009987706194883112</v>
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04125688856129437</v>
+        <v>0.03330557457829143</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6174</v>
+        <v>7969</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.005219173220998</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01610150508871621</v>
+        <v>0.02078535174238535</v>
       </c>
     </row>
     <row r="19">
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10579</v>
+        <v>12618</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01336826316169134</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05280014435157909</v>
+        <v>0.06297887828695016</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -6433,19 +6433,19 @@
         <v>5786</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2718</v>
+        <v>2680</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11916</v>
+        <v>12452</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0316065318849998</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01484601171109469</v>
+        <v>0.01464215230087183</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06509384294216275</v>
+        <v>0.06802481853950013</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -6454,19 +6454,19 @@
         <v>8464</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3923</v>
+        <v>3721</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16600</v>
+        <v>16553</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0220759467976227</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01023171485006257</v>
+        <v>0.009705823199992492</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04329549067105239</v>
+        <v>0.04317284255142791</v>
       </c>
     </row>
     <row r="20">
@@ -6483,19 +6483,19 @@
         <v>193858</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>186552</v>
+        <v>185774</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>197718</v>
+        <v>197614</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9675624172489172</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9310974917997759</v>
+        <v>0.927213110729557</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9868292802368133</v>
+        <v>0.9863094808060177</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>173</v>
@@ -6504,19 +6504,19 @@
         <v>172222</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>164738</v>
+        <v>164783</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>177359</v>
+        <v>177943</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9408032649172333</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8999217408846255</v>
+        <v>0.9001666452168242</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9688704158725241</v>
+        <v>0.9720597073800687</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>353</v>
@@ -6525,19 +6525,19 @@
         <v>366079</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>355036</v>
+        <v>356136</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>372641</v>
+        <v>373092</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9547865207861015</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9259845400134075</v>
+        <v>0.9288528053301666</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9719011780101802</v>
+        <v>0.9730770095833118</v>
       </c>
     </row>
     <row r="21">
@@ -6632,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6950</v>
+        <v>6170</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01153552778088961</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04738974701287522</v>
+        <v>0.04207124515231707</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4508</v>
+        <v>4461</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0080560217697871</v>
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04127429951746159</v>
+        <v>0.04084321199756952</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -6671,19 +6671,19 @@
         <v>2572</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7101</v>
+        <v>7602</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0100502493552263</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003095625758626427</v>
+        <v>0.003105532286885765</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02775294790035492</v>
+        <v>0.02971073731375874</v>
       </c>
     </row>
     <row r="23">
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5304</v>
+        <v>5389</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.007196397887825563</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03616497028220339</v>
+        <v>0.03674379109771223</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -6724,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5665</v>
+        <v>4960</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009160083465142353</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0518616388817407</v>
+        <v>0.04541194177684697</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6515</v>
+        <v>6266</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008034626019482297</v>
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02546202328930001</v>
+        <v>0.0244887287693114</v>
       </c>
     </row>
     <row r="24">
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4888</v>
+        <v>4534</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006704908436513276</v>
@@ -6830,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03332913809764465</v>
+        <v>0.03091440598571597</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5154</v>
+        <v>4902</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003842819446000047</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02014333604881993</v>
+        <v>0.01915574928572909</v>
       </c>
     </row>
     <row r="26">
@@ -6881,19 +6881,19 @@
         <v>142924</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>137444</v>
+        <v>138256</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>145664</v>
+        <v>145745</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9745631658947715</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9372021059433082</v>
+        <v>0.9427374601371438</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9932525136300948</v>
+        <v>0.9937992702516906</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>100</v>
@@ -6902,7 +6902,7 @@
         <v>107346</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>102553</v>
+        <v>102648</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>109226</v>
@@ -6911,7 +6911,7 @@
         <v>0.9827838947650706</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9389058049553589</v>
+        <v>0.9397801048167566</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -6923,19 +6923,19 @@
         <v>250268</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>243431</v>
+        <v>244028</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>253850</v>
+        <v>253961</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9780723051792913</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9513514000267776</v>
+        <v>0.9536839770470482</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9920704880477603</v>
+        <v>0.9925062051661395</v>
       </c>
     </row>
     <row r="27">
@@ -7027,19 +7027,19 @@
         <v>14703</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8876</v>
+        <v>8274</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24129</v>
+        <v>23059</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01610967333277335</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009725849652936876</v>
+        <v>0.009065395983564905</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02643857329688501</v>
+        <v>0.02526598575788123</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>20</v>
@@ -7048,19 +7048,19 @@
         <v>19795</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12571</v>
+        <v>12712</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>30239</v>
+        <v>31842</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02512745956752934</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01595727952073083</v>
+        <v>0.01613630317624098</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03838400426542597</v>
+        <v>0.04041913087447328</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>35</v>
@@ -7069,19 +7069,19 @@
         <v>34498</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>24398</v>
+        <v>24970</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>47583</v>
+        <v>46872</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02028746848564385</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01434806348471596</v>
+        <v>0.01468454491239861</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0279826149690941</v>
+        <v>0.02756447482351549</v>
       </c>
     </row>
     <row r="29">
@@ -7098,19 +7098,19 @@
         <v>3303</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1045</v>
+        <v>1056</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8998</v>
+        <v>9876</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.00361924504987992</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001144971649716334</v>
+        <v>0.001156613081760012</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.009859029817096202</v>
+        <v>0.01082152668227683</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -7119,19 +7119,19 @@
         <v>3138</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8261</v>
+        <v>8410</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.003983087227987888</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001267708181285051</v>
+        <v>0.001267022928671072</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01048592207063676</v>
+        <v>0.01067490149586961</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -7140,19 +7140,19 @@
         <v>6441</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3131</v>
+        <v>3127</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13572</v>
+        <v>13624</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00378780727219683</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.001841066791623102</v>
+        <v>0.001838632433069604</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.007981464320440924</v>
+        <v>0.008012142634792472</v>
       </c>
     </row>
     <row r="30">
@@ -7169,19 +7169,19 @@
         <v>8264</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4051</v>
+        <v>4112</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16073</v>
+        <v>15733</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.009055145980494181</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004439040074363616</v>
+        <v>0.004505951595927573</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.017611188840995</v>
+        <v>0.01723824690541999</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -7203,19 +7203,19 @@
         <v>8264</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3166</v>
+        <v>4035</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>15568</v>
+        <v>16271</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.004860042659011756</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001861601568870358</v>
+        <v>0.002372659445088718</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.009155180701449954</v>
+        <v>0.009568470693970307</v>
       </c>
     </row>
     <row r="31">
@@ -7232,19 +7232,19 @@
         <v>15730</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8252</v>
+        <v>8451</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>25943</v>
+        <v>25915</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01723528966807559</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009041439158758118</v>
+        <v>0.00926026084529942</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02842528348426508</v>
+        <v>0.02839476292281292</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>13</v>
@@ -7253,19 +7253,19 @@
         <v>13514</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7379</v>
+        <v>7362</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>22879</v>
+        <v>21434</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01715480856874932</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.009366168106409981</v>
+        <v>0.009344708544005632</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02904175137508802</v>
+        <v>0.02720793947329427</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>27</v>
@@ -7274,19 +7274,19 @@
         <v>29244</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>19927</v>
+        <v>20109</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>41960</v>
+        <v>42544</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01719800407071167</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01171858448598448</v>
+        <v>0.01182571293536863</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02467590654624711</v>
+        <v>0.02501915456702574</v>
       </c>
     </row>
     <row r="32">
@@ -7303,19 +7303,19 @@
         <v>870661</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>857215</v>
+        <v>856867</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>882394</v>
+        <v>881647</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.953980645968777</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9392479752158639</v>
+        <v>0.9388664321309698</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.96683664116079</v>
+        <v>0.9660179577523716</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>735</v>
@@ -7324,19 +7324,19 @@
         <v>751345</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>738182</v>
+        <v>738571</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>761700</v>
+        <v>762707</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9537346446357334</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9370259517213528</v>
+        <v>0.9375187956211957</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9668779280474794</v>
+        <v>0.9681561589165276</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1544</v>
@@ -7345,19 +7345,19 @@
         <v>1622005</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1603068</v>
+        <v>1604995</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1637732</v>
+        <v>1638739</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9538666775124359</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9427297505057421</v>
+        <v>0.943863133631947</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9631152088893422</v>
+        <v>0.9637071249717163</v>
       </c>
     </row>
     <row r="33">
